--- a/0_input/5_df_output.xlsx
+++ b/0_input/5_df_output.xlsx
@@ -4285,7 +4285,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
@@ -4709,7 +4711,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
@@ -6528,7 +6532,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>6</v>
+      </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
@@ -6650,7 +6656,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
@@ -6823,7 +6831,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
       <c r="J116" t="n">
         <v>43</v>
       </c>
@@ -7171,7 +7181,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
@@ -7792,7 +7804,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>31</v>
@@ -8024,7 +8038,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
       <c r="J137" t="n">
         <v>62</v>
       </c>
@@ -8311,7 +8327,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>10</v>
+      </c>
       <c r="J142" t="n">
         <v>14</v>
       </c>
@@ -8372,7 +8390,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>14</v>
+      </c>
       <c r="J143" t="n">
         <v>15</v>
       </c>
@@ -8594,7 +8614,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
       <c r="J147" t="n">
         <v>9</v>
       </c>
@@ -8714,7 +8736,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>19</v>
+      </c>
       <c r="J149" t="n">
         <v>16</v>
       </c>
@@ -8836,7 +8860,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
       <c r="J151" t="n">
         <v>41</v>
       </c>
@@ -8895,7 +8921,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>7</v>
+      </c>
       <c r="J152" t="n">
         <v>8</v>
       </c>
@@ -9219,7 +9247,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>3</v>
+      </c>
       <c r="J158" t="n">
         <v>48</v>
       </c>
@@ -9333,7 +9363,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>9</v>
+      </c>
       <c r="J160" t="n">
         <v>1</v>
       </c>
@@ -9506,7 +9538,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
       <c r="J163" t="n">
         <v>51</v>
       </c>
@@ -9559,7 +9593,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
       <c r="J164" t="n">
         <v>4</v>
       </c>
@@ -9726,7 +9762,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
       <c r="J167" t="n">
         <v>80</v>
       </c>
@@ -9785,7 +9823,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>4</v>
+      </c>
       <c r="J168" t="n">
         <v>42</v>
       </c>
@@ -9907,7 +9947,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
       <c r="J170" t="n">
         <v>20</v>
       </c>
@@ -10326,7 +10368,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
       <c r="J177" t="n">
         <v>2</v>
       </c>
@@ -10442,7 +10486,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
       <c r="J179" t="n">
         <v>21</v>
       </c>
@@ -10503,7 +10549,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>10</v>
+      </c>
       <c r="J180" t="n">
         <v>14</v>
       </c>
@@ -10735,7 +10783,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>4</v>
+      </c>
       <c r="J184" t="n">
         <v>3</v>
       </c>
@@ -10918,7 +10968,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
       <c r="J187" t="n">
         <v>0</v>
       </c>
@@ -10979,7 +11031,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>3</v>
+      </c>
       <c r="J188" t="n">
         <v>4</v>
       </c>
@@ -11158,7 +11212,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
       <c r="J191" t="n">
         <v>9</v>
       </c>
@@ -11461,7 +11517,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>10</v>
+      </c>
       <c r="J196" t="n">
         <v>17</v>
       </c>
@@ -11644,7 +11702,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>13</v>
+      </c>
       <c r="J199" t="n">
         <v>6</v>
       </c>
@@ -11941,7 +12001,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>4</v>
+      </c>
       <c r="J204" t="n">
         <v>71</v>
       </c>
@@ -12000,7 +12062,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
       <c r="J205" t="n">
         <v>10</v>
       </c>
@@ -12059,7 +12123,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
       <c r="J206" t="n">
         <v>22</v>
       </c>
@@ -12177,7 +12243,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>6</v>
+      </c>
       <c r="J208" t="n">
         <v>65</v>
       </c>
@@ -12413,7 +12481,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>21</v>
+      </c>
       <c r="J212" t="n">
         <v>6</v>
       </c>
@@ -12989,7 +13059,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>9</v>
+      </c>
       <c r="J222" t="n">
         <v>0</v>
       </c>
@@ -13103,7 +13175,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
       <c r="J224" t="n">
         <v>31</v>
       </c>
@@ -13162,7 +13236,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>7</v>
+      </c>
       <c r="J225" t="n">
         <v>63</v>
       </c>
@@ -13787,7 +13863,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
       <c r="J236" t="n">
         <v>3</v>
       </c>
@@ -13905,7 +13983,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>2</v>
+      </c>
       <c r="J238" t="n">
         <v>20</v>
       </c>
@@ -14135,7 +14215,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>6</v>
+      </c>
       <c r="J242" t="n">
         <v>0</v>
       </c>
@@ -14196,7 +14278,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
       <c r="J243" t="n">
         <v>38</v>
       </c>
@@ -14426,7 +14510,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>11</v>
+      </c>
       <c r="J247" t="n">
         <v>8</v>
       </c>
@@ -14837,7 +14923,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
@@ -15187,7 +15275,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>13</v>
+      </c>
       <c r="J260" t="n">
         <v>2</v>
       </c>
@@ -15248,7 +15338,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>14</v>
+      </c>
       <c r="J261" t="n">
         <v>48</v>
       </c>
@@ -16231,7 +16323,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>5</v>
+      </c>
       <c r="J278" t="n">
         <v>2</v>
       </c>
@@ -16646,7 +16740,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I285" t="inlineStr"/>
+      <c r="I285" t="n">
+        <v>3</v>
+      </c>
       <c r="J285" t="n">
         <v>2</v>
       </c>
@@ -16829,7 +16925,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
       <c r="J288" t="n">
         <v>39</v>
       </c>
@@ -16986,7 +17084,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
       <c r="J291" t="n">
         <v>26</v>
       </c>
@@ -17271,7 +17371,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I296" t="inlineStr"/>
+      <c r="I296" t="n">
+        <v>7</v>
+      </c>
       <c r="J296" t="n">
         <v>10</v>
       </c>
@@ -17332,7 +17434,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I297" t="inlineStr"/>
+      <c r="I297" t="n">
+        <v>4</v>
+      </c>
       <c r="J297" t="n">
         <v>3</v>
       </c>
@@ -17723,7 +17827,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="I304" t="inlineStr"/>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
       <c r="J304" t="n">
         <v>24</v>
       </c>
@@ -17841,7 +17947,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr"/>
+      <c r="I306" t="n">
+        <v>7</v>
+      </c>
       <c r="J306" t="n">
         <v>27</v>
       </c>
@@ -17963,7 +18071,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I308" t="inlineStr"/>
+      <c r="I308" t="n">
+        <v>14</v>
+      </c>
       <c r="J308" t="n">
         <v>18</v>
       </c>
@@ -18413,7 +18523,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I316" t="inlineStr"/>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
       <c r="J316" t="n">
         <v>56</v>
       </c>
@@ -18474,7 +18586,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I317" t="inlineStr"/>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
       <c r="J317" t="n">
         <v>40</v>
       </c>
@@ -18584,7 +18698,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I319" t="inlineStr"/>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
       <c r="J319" t="n">
         <v>0</v>
       </c>
@@ -18761,7 +18877,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I322" t="inlineStr"/>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
       <c r="J322" t="n">
         <v>70</v>
       </c>
@@ -19115,7 +19233,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr"/>
+      <c r="I328" t="n">
+        <v>12</v>
+      </c>
       <c r="J328" t="n">
         <v>1</v>
       </c>
@@ -19292,7 +19412,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I331" t="inlineStr"/>
+      <c r="I331" t="n">
+        <v>2</v>
+      </c>
       <c r="J331" t="n">
         <v>54</v>
       </c>
@@ -19756,7 +19878,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr"/>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
       <c r="J339" t="n">
         <v>56</v>
       </c>
@@ -20454,7 +20578,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I351" t="inlineStr"/>
+      <c r="I351" t="n">
+        <v>9</v>
+      </c>
       <c r="J351" t="n">
         <v>5</v>
       </c>
@@ -20971,7 +21097,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I360" t="inlineStr"/>
+      <c r="I360" t="n">
+        <v>3</v>
+      </c>
       <c r="J360" t="n">
         <v>23</v>
       </c>
@@ -21085,7 +21213,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I362" t="inlineStr"/>
+      <c r="I362" t="n">
+        <v>2</v>
+      </c>
       <c r="J362" t="n">
         <v>10</v>
       </c>
@@ -21201,7 +21331,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I364" t="inlineStr"/>
+      <c r="I364" t="n">
+        <v>1</v>
+      </c>
       <c r="J364" t="n">
         <v>19</v>
       </c>
@@ -21504,7 +21636,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I369" t="inlineStr"/>
+      <c r="I369" t="n">
+        <v>11</v>
+      </c>
       <c r="J369" t="n">
         <v>3</v>
       </c>
@@ -22491,7 +22625,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I386" t="inlineStr"/>
+      <c r="I386" t="n">
+        <v>10</v>
+      </c>
       <c r="J386" t="n">
         <v>0</v>
       </c>
@@ -22831,7 +22967,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I392" t="inlineStr"/>
+      <c r="I392" t="n">
+        <v>8</v>
+      </c>
       <c r="J392" t="n">
         <v>0</v>
       </c>
@@ -23250,7 +23388,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I399" t="inlineStr"/>
+      <c r="I399" t="n">
+        <v>8</v>
+      </c>
       <c r="J399" t="n">
         <v>8</v>
       </c>
@@ -23794,7 +23934,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I409" t="inlineStr"/>
+      <c r="I409" t="n">
+        <v>10</v>
+      </c>
       <c r="J409" t="n">
         <v>18</v>
       </c>
@@ -23853,7 +23995,9 @@
           <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="I410" t="inlineStr"/>
+      <c r="I410" t="n">
+        <v>4</v>
+      </c>
       <c r="J410" t="n">
         <v>50</v>
       </c>
@@ -23965,7 +24109,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I412" t="inlineStr"/>
+      <c r="I412" t="n">
+        <v>2</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr"/>
@@ -24360,7 +24506,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I419" t="inlineStr"/>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
       <c r="J419" t="n">
         <v>0</v>
       </c>
@@ -25119,7 +25267,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I432" t="inlineStr"/>
+      <c r="I432" t="n">
+        <v>1</v>
+      </c>
       <c r="J432" t="n">
         <v>31</v>
       </c>
@@ -25459,7 +25609,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I438" t="inlineStr"/>
+      <c r="I438" t="n">
+        <v>7</v>
+      </c>
       <c r="J438" t="n">
         <v>52</v>
       </c>
@@ -25695,7 +25847,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I442" t="inlineStr"/>
+      <c r="I442" t="n">
+        <v>7</v>
+      </c>
       <c r="J442" t="n">
         <v>5</v>
       </c>
@@ -26281,7 +26435,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I452" t="inlineStr"/>
+      <c r="I452" t="n">
+        <v>16</v>
+      </c>
       <c r="J452" t="n">
         <v>0</v>
       </c>
@@ -26562,7 +26718,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I457" t="inlineStr"/>
+      <c r="I457" t="n">
+        <v>1</v>
+      </c>
       <c r="J457" t="n">
         <v>4</v>
       </c>
@@ -26790,7 +26948,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I461" t="inlineStr"/>
+      <c r="I461" t="n">
+        <v>2</v>
+      </c>
       <c r="J461" t="n">
         <v>7</v>
       </c>
@@ -28082,7 +28242,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I483" t="inlineStr"/>
+      <c r="I483" t="n">
+        <v>0</v>
+      </c>
       <c r="J483" t="n">
         <v>9</v>
       </c>
@@ -28381,7 +28543,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I488" t="inlineStr"/>
+      <c r="I488" t="n">
+        <v>6</v>
+      </c>
       <c r="J488" t="n">
         <v>15</v>
       </c>
@@ -28501,7 +28665,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I490" t="inlineStr"/>
+      <c r="I490" t="n">
+        <v>8</v>
+      </c>
       <c r="J490" t="n">
         <v>2</v>
       </c>
@@ -29181,7 +29347,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I502" t="inlineStr"/>
+      <c r="I502" t="n">
+        <v>7</v>
+      </c>
       <c r="J502" t="n">
         <v>1</v>
       </c>
@@ -29425,7 +29593,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I506" t="inlineStr"/>
+      <c r="I506" t="n">
+        <v>6</v>
+      </c>
       <c r="J506" t="n">
         <v>1</v>
       </c>
@@ -29545,7 +29715,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I508" t="inlineStr"/>
+      <c r="I508" t="n">
+        <v>4</v>
+      </c>
       <c r="J508" t="n">
         <v>5</v>
       </c>
@@ -29840,7 +30012,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I513" t="inlineStr"/>
+      <c r="I513" t="n">
+        <v>0</v>
+      </c>
       <c r="J513" t="n">
         <v>21</v>
       </c>
@@ -30125,7 +30299,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I518" t="inlineStr"/>
+      <c r="I518" t="n">
+        <v>24</v>
+      </c>
       <c r="J518" t="n">
         <v>1</v>
       </c>
@@ -30245,7 +30421,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I520" t="inlineStr"/>
+      <c r="I520" t="n">
+        <v>1</v>
+      </c>
       <c r="J520" t="n">
         <v>0</v>
       </c>
@@ -30658,7 +30836,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I527" t="inlineStr"/>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
       <c r="J527" t="n">
         <v>30</v>
       </c>
@@ -31250,7 +31430,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I537" t="inlineStr"/>
+      <c r="I537" t="n">
+        <v>1</v>
+      </c>
       <c r="J537" t="n">
         <v>18</v>
       </c>
@@ -31490,7 +31672,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I541" t="inlineStr"/>
+      <c r="I541" t="n">
+        <v>2</v>
+      </c>
       <c r="J541" t="n">
         <v>2</v>
       </c>
@@ -31977,7 +32161,9 @@
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="I550" t="inlineStr"/>
+      <c r="I550" t="n">
+        <v>4</v>
+      </c>
       <c r="J550" t="n">
         <v>75</v>
       </c>
@@ -32950,7 +33136,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I567" t="inlineStr"/>
+      <c r="I567" t="n">
+        <v>7</v>
+      </c>
       <c r="J567" t="n">
         <v>14</v>
       </c>
@@ -33068,7 +33256,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I569" t="inlineStr"/>
+      <c r="I569" t="n">
+        <v>1</v>
+      </c>
       <c r="J569" t="n">
         <v>84</v>
       </c>
@@ -34131,7 +34321,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I588" t="inlineStr"/>
+      <c r="I588" t="n">
+        <v>2</v>
+      </c>
       <c r="J588" t="n">
         <v>1</v>
       </c>
@@ -34662,7 +34854,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I597" t="inlineStr"/>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
       <c r="J597" t="n">
         <v>0</v>
       </c>
@@ -34835,7 +35029,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I600" t="inlineStr"/>
+      <c r="I600" t="n">
+        <v>0</v>
+      </c>
       <c r="J600" t="n">
         <v>0</v>
       </c>
@@ -34957,7 +35153,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I602" t="inlineStr"/>
+      <c r="I602" t="n">
+        <v>1</v>
+      </c>
       <c r="J602" t="n">
         <v>17</v>
       </c>
@@ -35075,7 +35273,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I604" t="inlineStr"/>
+      <c r="I604" t="n">
+        <v>0</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
@@ -35240,7 +35440,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I607" t="inlineStr"/>
+      <c r="I607" t="n">
+        <v>1</v>
+      </c>
       <c r="J607" t="n">
         <v>11</v>
       </c>
@@ -36087,7 +36289,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="I622" t="inlineStr"/>
+      <c r="I622" t="n">
+        <v>3</v>
+      </c>
       <c r="J622" t="n">
         <v>61</v>
       </c>
@@ -36722,7 +36926,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I633" t="inlineStr"/>
+      <c r="I633" t="n">
+        <v>14</v>
+      </c>
       <c r="J633" t="n">
         <v>19</v>
       </c>
@@ -36779,7 +36985,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I634" t="inlineStr"/>
+      <c r="I634" t="n">
+        <v>5</v>
+      </c>
       <c r="J634" t="n">
         <v>0</v>
       </c>
@@ -37070,7 +37278,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I639" t="inlineStr"/>
+      <c r="I639" t="n">
+        <v>5</v>
+      </c>
       <c r="J639" t="n">
         <v>2</v>
       </c>
@@ -37186,7 +37396,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I641" t="inlineStr"/>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
       <c r="J641" t="n">
         <v>0</v>
       </c>
@@ -38764,7 +38976,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I669" t="inlineStr"/>
+      <c r="I669" t="n">
+        <v>13</v>
+      </c>
       <c r="J669" t="n">
         <v>0</v>
       </c>
@@ -39772,7 +39986,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I687" t="inlineStr"/>
+      <c r="I687" t="n">
+        <v>0</v>
+      </c>
       <c r="J687" t="n">
         <v>0</v>
       </c>
@@ -41969,7 +42185,9 @@
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="I726" t="inlineStr"/>
+      <c r="I726" t="n">
+        <v>1</v>
+      </c>
       <c r="J726" t="n">
         <v>0</v>
       </c>
@@ -43154,7 +43372,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I747" t="inlineStr"/>
+      <c r="I747" t="n">
+        <v>4</v>
+      </c>
       <c r="J747" t="n">
         <v>68</v>
       </c>
@@ -43445,7 +43665,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I752" t="inlineStr"/>
+      <c r="I752" t="n">
+        <v>3</v>
+      </c>
       <c r="J752" t="n">
         <v>31</v>
       </c>
@@ -43504,7 +43726,9 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I753" t="inlineStr"/>
+      <c r="I753" t="n">
+        <v>0</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">

--- a/0_input/5_df_output.xlsx
+++ b/0_input/5_df_output.xlsx
@@ -682,29 +682,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CTYO</t>
+          <t>CTPR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-82</v>
+        <v>-96</v>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CathayOnline, Inc.</t>
+          <t>CTPartners Executive Search Inc.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Staffing &amp; Employment Services</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -712,221 +712,229 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
-        <v>201.45</v>
+        <v>256.9</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>5331</v>
       </c>
       <c r="N5" t="n">
-        <v>-156</v>
+        <v>-132</v>
       </c>
       <c r="O5" t="n">
-        <v>-2</v>
+        <v>-0</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>678.14k</t>
+          <t>21.07M</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>-64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AZLOF</t>
+          <t>CVSC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>-46</v>
+        <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Azelio AB (publ)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Utilities—Renewable</t>
-        </is>
-      </c>
+          <t>Cardiovascular Sciences, Inc.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>254.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>100</v>
+      </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>-21</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>-0</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CTPR</t>
+          <t>APVNF</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>-26</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CTPartners Executive Search Inc.</t>
+          <t>ARISE Technologies Corporation</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Staffing &amp; Employment Services</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>256.9</v>
+        <v>668.37</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2600</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1023</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>33.31M</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5331</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-132</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>21.07M</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICGFF</t>
+          <t>CTYO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.45</v>
+        <v>0.01</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-82</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>India Capital Growth Fund Limited</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>CathayOnline, Inc.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>0.67</v>
+        <v>201.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+        <v>-156</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>678.14k</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>-64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FWDG</t>
+          <t>COWP</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FutureWorld Corp.</t>
+          <t>Canal Capital Corporation</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
+          <t>Real Estate—Development</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -935,268 +943,266 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>52.73</v>
+        <v>1503.57</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="N9" t="n">
-        <v>-1</v>
+        <v>295</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-155.87k</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0</v>
-      </c>
+          <t>638k</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FTBGF</t>
+          <t>ARGL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-90</v>
+        <v>-92</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bidstack Group Plc</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Argyle Security, Inc.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Security &amp; Protection Services</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>20</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>7.6</v>
+        <v>2.16</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="O10" t="n">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>8.44k</t>
+          <t>17.12M</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>-5</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADCV</t>
+          <t>GSRX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-98</v>
+        <v>-95</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ADCapital US Inc.</t>
+          <t>GSRX Industries Inc.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pollution &amp; Treatment Controls</t>
+          <t>Drug Manufacturers—Specialty &amp; Generic</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>87</v>
+      </c>
       <c r="K11" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.43M</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AWRS</t>
+          <t>ARSEF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>-99</v>
+        <v>-50</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>All World Resources Corporation</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Software—Application</t>
-        </is>
-      </c>
+          <t>Altai Resources Inc.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>22</v>
+      </c>
       <c r="K12" t="n">
-        <v>16.4</v>
+        <v>1.68</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
       <c r="N12" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>23</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COWP</t>
+          <t>GTMIF</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="E13" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Canal Capital Corporation</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Real Estate—Development</t>
-        </is>
-      </c>
+          <t>Gastem Inc.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>1503.57</v>
+        <v>22108.37</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="n">
-        <v>4300</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>295</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>638k</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+        <v>-2428</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>-40</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CVSC</t>
+          <t>AIGI</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>-98</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cardiovascular Sciences, Inc.</t>
+          <t>Axia International Group, Inc.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1206,51 +1212,55 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>254.05</v>
+        <v>1407.93</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>639</v>
       </c>
       <c r="N14" t="n">
-        <v>-21</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+        <v>527</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>36.8k</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HOTF</t>
+          <t>EFOT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-90</v>
+        <v>-98</v>
       </c>
       <c r="E15" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hot Mama's Foods, Inc.</t>
+          <t>eFotoXpress, Inc.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Software—Application</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1259,94 +1269,80 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="n">
-        <v>9.84</v>
+        <v>435.4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="n">
-        <v>160</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>3.77M</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+          <t>4.93M</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IBXXF</t>
+          <t>EFLN</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-99</v>
+        <v>-92</v>
       </c>
       <c r="E16" t="n">
-        <v>-215</v>
+        <v>63</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Imagion Biosystems Limited</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Diagnostics &amp; Research</t>
-        </is>
-      </c>
+          <t>eFUEL EFN CORPORATION</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>10</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>41.49</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>19</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>660.98k</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IDLM</t>
+          <t>EESO</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1356,21 +1352,17 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-97</v>
+        <v>-75</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Idle Media, Inc.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Internet Content &amp; Information</t>
-        </is>
-      </c>
+          <t>Enzyme Environmental Solutions, Inc.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>United States</t>
@@ -1381,125 +1373,123 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.37</v>
+        <v>5.09</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="n">
-        <v>20</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-360k</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GARQF</t>
+          <t>AENG</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>-100</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gallery Resources Limited</t>
+          <t>Advanced Engine Technologies, Inc.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>138.72</v>
+        <v>181.16</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>-29</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>110k</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>-158</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCDS</t>
+          <t>GARQF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-99</v>
+        <v>-0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blaqclouds Inc.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Software—Application</t>
-        </is>
-      </c>
+          <t>Gallery Resources Limited</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>6615.19</v>
+        <v>138.72</v>
       </c>
       <c r="L19" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>23</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+        <v>-29</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>110k</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBTC</t>
+          <t>EMMD</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1512,11 +1502,11 @@
         <v>-100</v>
       </c>
       <c r="E20" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harbourton Capital Group, Inc.</t>
+          <t>eMedia Group Inc.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1526,55 +1516,59 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>75</v>
+      </c>
       <c r="K20" t="n">
-        <v>41905.55</v>
+        <v>71.08</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>19000</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>19441</v>
+        <v>55</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>78.25M</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IHTI</t>
+          <t>ALAN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-97</v>
+        <v>-94</v>
       </c>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>-11514</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Integrative Health Technologies, Inc.</t>
+          <t>Alanco Technologies, Inc.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Diagnostics &amp; Research</t>
+          <t>Waste Management</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1582,95 +1576,125 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
-        <v>169.1</v>
+        <v>30.39</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>131</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+        <v>-45</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>750k</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BBDA</t>
+          <t>DESTQ</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-98</v>
+        <v>-89</v>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bebida Beverage Company</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Destination Maternity Corporation</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Apparel Retail</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
       <c r="K22" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
+        <v>200.81</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>43200</v>
+        <v>3485</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+        <v>-162</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>197.71M</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AENG</t>
+          <t>DEVM</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-100</v>
+        <v>-86</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Advanced Engine Technologies, Inc.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>DevMar Equities, Inc.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Real Estate—Development</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>United States</t>
@@ -1679,25 +1703,27 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>181.16</v>
+        <v>41.1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>11</v>
+      </c>
       <c r="N23" t="n">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>-158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ICNM</t>
+          <t>GFCI</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1707,56 +1733,54 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-87</v>
+        <v>-98</v>
       </c>
       <c r="E24" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Icon Media Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
-        </is>
-      </c>
+          <t>Grifco International, Inc.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
-        <v>7.05</v>
+        <v>292.66</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="O24" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.07M</t>
+          <t>77.8k</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AEDC</t>
+          <t>DLTA</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1766,21 +1790,17 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="E25" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>American Energy Development Corp.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Independent Oil &amp; Gas</t>
-        </is>
-      </c>
+          <t>Delta Oil &amp; Gas, Inc.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>United States</t>
@@ -1789,25 +1809,33 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>8.550000000000001</v>
+        <v>54.35</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>-11</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+        <v>-116</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>201.44k</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMMD</t>
+          <t>DIAAF</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1817,134 +1845,142 @@
         <v>-0</v>
       </c>
       <c r="D26" t="n">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>eMedia Group Inc.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Diamant Art Corp.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>75</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>71.08</v>
+        <v>371.37</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="O26" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>3.37M</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ARSEF</t>
+          <t>HBTC</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>-0</v>
       </c>
       <c r="D27" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="E27" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Altai Resources Inc.</t>
+          <t>Harbourton Capital Group, Inc.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>22</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>1.68</v>
+        <v>41905.55</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+        <v>19441</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>78.25M</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HTPRF</t>
+          <t>CBDG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-60</v>
+        <v>-94</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HTC Purenergy Inc.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>THC Farmaceuticals, Inc.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Business Equipment &amp; Supplies</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>33</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>23.32</v>
+        <v>1.01</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1953,46 +1989,44 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>5.62M</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>-11</v>
-      </c>
+          <t>684.22k</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ALAN</t>
+          <t>CBCA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D29" t="n">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="E29" t="n">
-        <v>-11514</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Alanco Technologies, Inc.</t>
+          <t>Crown Baus Capital Corp.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Waste Management</t>
+          <t>Conglomerates</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2000,111 +2034,111 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>30.39</v>
+        <v>2812.79</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>-45</v>
+        <v>2809</v>
       </c>
       <c r="O29" t="n">
-        <v>-2</v>
+        <v>449</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>750k</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>-4</v>
-      </c>
+          <t>89.85k</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EESO</t>
+          <t>HTPRF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D30" t="n">
-        <v>-75</v>
+        <v>-60</v>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Enzyme Environmental Solutions, Inc.</t>
+          <t>HTC Purenergy Inc.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K30" t="n">
-        <v>5.09</v>
+        <v>23.32</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>27</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-360k</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+          <t>5.62M</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>-11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ARGL</t>
+          <t>IHTI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D31" t="n">
-        <v>-92</v>
+        <v>-97</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Argyle Security, Inc.</t>
+          <t>Integrative Health Technologies, Inc.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Security &amp; Protection Services</t>
+          <t>Diagnostics &amp; Research</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2115,33 +2149,25 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>2.16</v>
+        <v>169.1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>480</v>
+        <v>7</v>
       </c>
       <c r="N31" t="n">
-        <v>370</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>17.12M</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>-19</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EFOT</t>
+          <t>IDLM</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2151,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-98</v>
+        <v>-97</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>eFotoXpress, Inc.</t>
+          <t>Idle Media, Inc.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Software—Application</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2176,153 +2202,165 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>435.4</v>
+        <v>3.37</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>20</v>
+      </c>
       <c r="N32" t="n">
-        <v>3</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>4.93M</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EFLN</t>
+          <t>BRER</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D33" t="n">
         <v>-92</v>
       </c>
       <c r="E33" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>eFUEL EFN CORPORATION</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Bresler &amp; Reiner, Inc.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Real Estate—Diversified</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
-        <v>41.49</v>
+        <v>1446.16</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+        <v>431</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>648.45M</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DLTA</t>
+          <t>IBXXF</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D34" t="n">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="E34" t="n">
-        <v>82</v>
+        <v>-215</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Delta Oil &amp; Gas, Inc.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Imagion Biosystems Limited</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Diagnostics &amp; Research</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10</v>
+      </c>
       <c r="K34" t="n">
-        <v>54.35</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
+        <v>4.95</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-116</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
+        <v>19</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>660.98k</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>-1</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>201.44k</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DEVM</t>
+          <t>ICNM</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-86</v>
+        <v>-87</v>
       </c>
       <c r="E35" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DevMar Equities, Inc.</t>
+          <t>Icon Media Holdings, Inc.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Real Estate—Development</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2333,141 +2371,137 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>41.1</v>
+        <v>7.05</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+        <v>-7</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1.07M</t>
+        </is>
+      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DESTQ</t>
+          <t>ICGFF</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01</v>
+        <v>1.45</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Destination Maternity Corporation</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Apparel Retail</t>
-        </is>
-      </c>
+          <t>India Capital Growth Fund Limited</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>200.81</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
       <c r="M36" t="n">
-        <v>3485</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-162</v>
-      </c>
-      <c r="O36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>197.71M</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FRNV</t>
+          <t>CAGU</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-90</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>The Castle Group, Inc.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Lodging</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>67</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>39</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O37" t="n">
         <v>-0</v>
       </c>
-      <c r="D37" t="n">
-        <v>-100</v>
-      </c>
-      <c r="E37" t="n">
-        <v>58</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Frontera Investment, Inc.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Credit Services</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>641.25</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>8200</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4443</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>4.75M</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>1</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>3.38M</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>-675</v>
       </c>
     </row>
     <row r="38">
@@ -2593,82 +2627,80 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AVGG</t>
+          <t>BOPCF</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="C40" t="n">
         <v>-0</v>
       </c>
       <c r="D40" t="n">
-        <v>-64</v>
+        <v>-0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Advanced Technologies Group, Ltd.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Software—Application</t>
-        </is>
-      </c>
+          <t>BioPharma Credit PLC</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>11</v>
+      </c>
       <c r="K40" t="n">
-        <v>22.83</v>
+        <v>1.54</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
       <c r="N40" t="n">
-        <v>37</v>
-      </c>
-      <c r="O40" t="n">
-        <v>169</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>7.8k</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HKBV</t>
+          <t>HOTF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0</v>
+        <v>-90</v>
       </c>
       <c r="E41" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hat Trick Beverage, Inc.</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Hot Mama's Foods, Inc.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>United States</t>
@@ -2677,27 +2709,33 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>85.77</v>
+        <v>9.84</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N41" t="n">
-        <v>83</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>3.77M</t>
+        </is>
+      </c>
       <c r="Q41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AIGI</t>
+          <t>AWRS</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2707,17 +2745,21 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="E42" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Axia International Group, Inc.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>All World Resources Corporation</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Software—Application</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>United States</t>
@@ -2726,149 +2768,125 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>1407.93</v>
+        <v>16.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>527</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>36.8k</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+        <v>-8</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>APVNF</t>
+          <t>ISPD</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-100</v>
+        <v>-33</v>
       </c>
       <c r="E43" t="n">
-        <v>-26</v>
+        <v>-221</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ARISE Technologies Corporation</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
+          <t>Interspeed, Inc.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>668.37</v>
+        <v>2028.24</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="N43" t="n">
-        <v>-1023</v>
-      </c>
-      <c r="O43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>33.31M</t>
-        </is>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>-2363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DIAAF</t>
+          <t>AZLOF</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="C44" t="n">
         <v>-0</v>
       </c>
       <c r="D44" t="n">
-        <v>-92</v>
+        <v>-46</v>
       </c>
       <c r="E44" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Diamant Art Corp.</t>
+          <t>Azelio AB (publ)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Furnishings, Fixtures &amp; Appliances</t>
+          <t>Utilities—Renewable</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>40</v>
+      </c>
       <c r="K44" t="n">
-        <v>371.37</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>200</v>
-      </c>
+        <v>2.88</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>83</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>3.37M</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="n">
-        <v>85</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INOH</t>
+          <t>HKBV</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2878,49 +2896,41 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-85</v>
+        <v>-0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>In Ovations Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Specialty Industrial Machinery</t>
-        </is>
-      </c>
+          <t>Hat Trick Beverage, Inc.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>1387102</v>
+        <v>85.77</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
       <c r="N45" t="n">
-        <v>-1355768</v>
-      </c>
-      <c r="O45" t="n">
-        <v>-0</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+        <v>83</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2968,73 +2978,79 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BOPCF</t>
+          <t>AVGG</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>-0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0</v>
+        <v>-64</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BioPharma Credit PLC</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Advanced Technologies Group, Ltd.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Software—Application</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>11</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>1.54</v>
+        <v>22.83</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="O47" t="n">
+        <v>169</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>7.8k</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GTMIF</t>
+          <t>HNTHF</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D48" t="n">
-        <v>-90</v>
+        <v>-0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gastem Inc.</t>
+          <t>High North Resources Ltd.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3046,47 +3062,55 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>22108.37</v>
+        <v>50.96</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>700</v>
+      </c>
       <c r="N48" t="n">
-        <v>-2428</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+        <v>-978</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>13.42M</t>
+        </is>
+      </c>
       <c r="Q48" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CBDG</t>
+          <t>CESF</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-94</v>
+        <v>-83</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>THC Farmaceuticals, Inc.</t>
+          <t>CE Software, Inc.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Business Equipment &amp; Supplies</t>
+          <t>Specialty Business Services</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3097,53 +3121,47 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>1.01</v>
+        <v>51.04</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>684.22k</t>
-        </is>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CBCA</t>
+          <t>BFTI</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>-100</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Crown Baus Capital Corp.</t>
+          <t>Befut Global, Inc.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Conglomerates</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3154,46 +3172,50 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>2812.79</v>
+        <v>13671.99</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>18500</v>
+      </c>
       <c r="N50" t="n">
-        <v>2809</v>
+        <v>3877</v>
       </c>
       <c r="O50" t="n">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>89.85k</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+          <t>41.34M</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1937</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IOMT</t>
+          <t>BGII</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D51" t="n">
-        <v>-41</v>
+        <v>-98</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Isomet Corp.</t>
+          <t>BGI, Inc.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3203,37 +3225,35 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>110.22</v>
+        <v>2138.07</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>53</v>
+        <v>3400</v>
       </c>
       <c r="N51" t="n">
-        <v>92</v>
+        <v>1724</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1.78M</t>
+          <t>281.81k</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>8</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CGSO</t>
+          <t>INOH</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3243,19 +3263,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-96</v>
+        <v>-85</v>
       </c>
       <c r="E52" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Centergistic Solutions Inc.</t>
+          <t>In Ovations Holdings, Inc.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Software—Application</t>
+          <t>Specialty Industrial Machinery</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3264,114 +3284,104 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
-        <v>25.15</v>
+        <v>1387102</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>-3</v>
+        <v>-1355768</v>
       </c>
       <c r="O52" t="n">
         <v>-0</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>368k</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
+          <t>1.29M</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BRER</t>
+          <t>BBDA</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-92</v>
+        <v>-98</v>
       </c>
       <c r="E53" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bresler &amp; Reiner, Inc.</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Real Estate—Diversified</t>
-        </is>
-      </c>
+          <t>Bebida Beverage Company</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>1446.16</v>
+        <v>3.69</v>
       </c>
       <c r="L53" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1520</v>
+        <v>43200</v>
       </c>
       <c r="N53" t="n">
-        <v>431</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>648.45M</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ISPD</t>
+          <t>BCDS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-33</v>
+        <v>-99</v>
       </c>
       <c r="E54" t="n">
-        <v>-221</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Interspeed, Inc.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Blaqclouds Inc.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Software—Application</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>United States</t>
@@ -3380,155 +3390,161 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>2028.24</v>
+        <v>6615.19</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2900</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>1167</v>
+        <v>23</v>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="n">
-        <v>-2363</v>
-      </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CESF</t>
+          <t>IOMT</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.52</v>
+        <v>0.03</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-83</v>
+        <v>-41</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CE Software, Inc.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Specialty Business Services</t>
-        </is>
-      </c>
+          <t>Isomet Corp.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>51.04</v>
+        <v>110.22</v>
       </c>
       <c r="L55" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="N55" t="n">
-        <v>51</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1.78M</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HNTHF</t>
+          <t>CGSO</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0</v>
+        <v>-96</v>
       </c>
       <c r="E56" t="n">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>High North Resources Ltd.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Centergistic Solutions Inc.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Software—Application</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>50.96</v>
+        <v>25.15</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>700</v>
+        <v>145</v>
       </c>
       <c r="N56" t="n">
-        <v>-978</v>
+        <v>-3</v>
       </c>
       <c r="O56" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>13.42M</t>
+          <t>368k</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>-39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CAGU</t>
+          <t>FWDG</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-90</v>
+        <v>-94</v>
       </c>
       <c r="E57" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>The Castle Group, Inc.</t>
+          <t>FutureWorld Corp.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lodging</t>
+          <t>Drug Manufacturers—Specialty &amp; Generic</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3538,36 +3554,36 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>2.34</v>
+        <v>52.73</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O57" t="n">
+        <v>8</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>-155.87k</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
         <v>-0</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>4.75M</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ESFS</t>
+          <t>EURI</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3577,24 +3593,20 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-93</v>
+        <v>-100</v>
       </c>
       <c r="E58" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Eco Safe Systems USA, Inc.</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pollution &amp; Treatment Controls</t>
-        </is>
-      </c>
+          <t>AgriEuro Corp.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3602,135 +3614,137 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>3.5</v>
+        <v>703.08</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
       <c r="N58" t="n">
-        <v>3</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+        <v>-694</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2.38M</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EURI</t>
+          <t>ABZT</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D59" t="n">
-        <v>-100</v>
+        <v>-0</v>
       </c>
       <c r="E59" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>AgriEuro Corp.</t>
+          <t>Ablaze Technologies Inc</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>703.08</v>
+        <v>60.08</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N59" t="n">
-        <v>-694</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>2.38M</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
-        <v>12</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BGII</t>
+          <t>FTBGF</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C60" t="n">
         <v>-0</v>
       </c>
       <c r="D60" t="n">
-        <v>-98</v>
+        <v>-90</v>
       </c>
       <c r="E60" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BGI, Inc.</t>
+          <t>Bidstack Group Plc</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>20</v>
+      </c>
       <c r="K60" t="n">
-        <v>2138.07</v>
+        <v>7.6</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1724</v>
+        <v>8</v>
       </c>
       <c r="O60" t="n">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>281.81k</t>
+          <t>8.44k</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>260</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BFTI</t>
+          <t>ESFS</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3740,19 +3754,19 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="E61" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Befut Global, Inc.</t>
+          <t>Eco Safe Systems USA, Inc.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Pollution &amp; Treatment Controls</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3761,116 +3775,100 @@
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="n">
-        <v>13671.99</v>
+        <v>3.5</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>18500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>3877</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>41.34M</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
-        <v>1937</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GSRX</t>
+          <t>ADCV</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-95</v>
+        <v>-98</v>
       </c>
       <c r="E62" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>GSRX Industries Inc.</t>
+          <t>ADCapital US Inc.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
+          <t>Pollution &amp; Treatment Controls</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>87</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>2.59</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="M62" t="n">
-        <v>12</v>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>1.43M</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
         <v>1</v>
       </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ABZT</t>
+          <t>AEDC</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0</v>
+        <v>-89</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ablaze Technologies Inc</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>American Energy Development Corp.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Independent Oil &amp; Gas</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>United States</t>
@@ -3879,16 +3877,16 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>60.08</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>58</v>
+        <v>-11</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -3897,58 +3895,60 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GFCI</t>
+          <t>FRNV</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D64" t="n">
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="E64" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Grifco International, Inc.</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Frontera Investment, Inc.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>292.66</v>
+        <v>641.25</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="N64" t="n">
-        <v>-5</v>
+        <v>4443</v>
       </c>
       <c r="O64" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>77.8k</t>
+          <t>3.38M</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>-66</v>
+        <v>-675</v>
       </c>
     </row>
     <row r="65">
@@ -4076,58 +4076,56 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>O5G.DE</t>
+          <t>ENCW</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>-14</v>
+        <v>-99</v>
       </c>
       <c r="E67" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CPI Property Group S.A.</t>
+          <t>Enchanted World Inc.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Real Estate Services</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>91</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0.93</v>
+        <v>4698.77</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>4.91B</t>
+          <t>314.55k</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
@@ -4135,56 +4133,58 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENCW</t>
+          <t>O5G.DE</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>-99</v>
+        <v>-14</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Enchanted World Inc.</t>
+          <t>CPI Property Group S.A.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>91</v>
+      </c>
       <c r="K68" t="n">
-        <v>4698.77</v>
+        <v>0.93</v>
       </c>
       <c r="L68" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>314.55k</t>
+          <t>4.91B</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
@@ -4982,46 +4982,46 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CBRSF</t>
+          <t>IDGXF</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.06</v>
+        <v>0.93</v>
       </c>
       <c r="C83" t="n">
         <v>14</v>
       </c>
       <c r="D83" t="n">
-        <v>-48</v>
+        <v>-43</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Champion Bear Resources Ltd.</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>Integrated Diagnostics Holdings plc</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Diagnostics &amp; Research</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Jersey</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K83" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
+        <v>1.09</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>-1</v>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -5029,46 +5029,46 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IDGXF</t>
+          <t>CBRSF</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.93</v>
+        <v>0.06</v>
       </c>
       <c r="C84" t="n">
         <v>14</v>
       </c>
       <c r="D84" t="n">
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="E84" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Integrated Diagnostics Holdings plc</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Diagnostics &amp; Research</t>
-        </is>
-      </c>
+          <t>Champion Bear Resources Ltd.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jersey</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K84" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>-1</v>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
